--- a/Todo&Done.xlsx
+++ b/Todo&Done.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26140" windowHeight="12530"/>
   </bookViews>
   <sheets>
     <sheet name="知识点梳理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>大类</t>
   </si>
@@ -110,11 +110,6 @@
   </si>
   <si>
     <t>分布式</t>
-  </si>
-  <si>
-    <t>ACID/
-BASE：Basically Available（基本可用）、Soft state（软状态）和Eventually consistent（最终一致性）
-本地消息表、补偿（确认）、TCC、Seata</t>
   </si>
   <si>
     <t>锁</t>
@@ -274,19 +269,32 @@
   </si>
   <si>
     <t>石杉《互联网面试（分布式篇）》</t>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACID/
+BASE：Basically Available（基本可用）、Soft state（软状态）和Eventually consistent（最终一致性）
+本地消息表、补偿（确认）、TCC、
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里开源Seata使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考官网的分布式示例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,158 +322,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,198 +337,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -725,251 +408,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,48 +433,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,64 +490,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1391,29 +785,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="5.72727272727273" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.90909090909091" customWidth="1"/>
-    <col min="5" max="5" width="90.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="38.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="6" width="47.81640625" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,480 +823,528 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="21"/>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="15"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="15"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="15"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="28" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="28">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12"/>
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" ht="56" spans="1:5">
-      <c r="A17" s="17" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="84">
+      <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="56">
+      <c r="A18" s="17"/>
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" ht="42" spans="1:5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18"/>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18"/>
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="15"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" ht="28" spans="1:5">
-      <c r="A28" s="20" t="s">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="28">
+      <c r="A28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="16" t="s">
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="21"/>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="21"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23"/>
       <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="21"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23"/>
       <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23"/>
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="21"/>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="24"/>
+      <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="22"/>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="17" t="s">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="23"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
-        <v>56</v>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="15"/>
       <c r="B38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="17" t="s">
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="17"/>
       <c r="B42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="23"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A43"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1930,49 +1372,48 @@
       <c r="D5" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="48.6363636363636" customWidth="1"/>
-    <col min="3" max="4" width="9.90909090909091" customWidth="1"/>
-    <col min="5" max="5" width="14.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="48.6328125" customWidth="1"/>
+    <col min="3" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1981,7 +1422,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1989,23 +1430,23 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2014,7 +1455,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2023,15 +1464,15 @@
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>